--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed1/result_data_KNN.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.25</v>
+        <v>-21.576</v>
       </c>
       <c r="B4" t="n">
-        <v>6.200000000000001</v>
+        <v>6.093000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.25</v>
+        <v>-21.325</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.206</v>
+        <v>-13.063</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.698</v>
+        <v>-20.296</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.428</v>
+        <v>-11.879</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.728</v>
+        <v>-20.996</v>
       </c>
       <c r="B8" t="n">
-        <v>6.267999999999999</v>
+        <v>6.411</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.502</v>
+        <v>-13.371</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.718</v>
+        <v>5.808999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.536</v>
+        <v>-13.026</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.604000000000001</v>
+        <v>5.52</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.718</v>
+        <v>-12.918</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.51</v>
+        <v>-12.987</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.1</v>
+        <v>-21.2</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.302</v>
+        <v>-12.485</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.474</v>
+        <v>5.619999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.926</v>
+        <v>5.605</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>5.516</v>
+        <v>6.919</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.16</v>
+        <v>-21.854</v>
       </c>
       <c r="B20" t="n">
-        <v>5.154</v>
+        <v>5.773000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.632</v>
+        <v>-20.186</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.968000000000001</v>
+        <v>6.132</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.29</v>
+        <v>-21.555</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.086</v>
+        <v>-21.5</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-22.378</v>
+        <v>-22.344</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.928</v>
+        <v>-13.511</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.220000000000001</v>
+        <v>5.966000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.178</v>
+        <v>-21.583</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.834</v>
+        <v>-13.258</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>6.38</v>
+        <v>6.718999999999999</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.942</v>
+        <v>-21.432</v>
       </c>
       <c r="B40" t="n">
-        <v>5.556</v>
+        <v>6.167</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.626</v>
+        <v>-11.547</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>4.720000000000001</v>
+        <v>6.794</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>6.77</v>
+        <v>6.615</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.798</v>
+        <v>5.903</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.66</v>
+        <v>-12.906</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.98</v>
+        <v>-21.63</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.412000000000001</v>
+        <v>5.833</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.452</v>
+        <v>5.443</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-20.924</v>
+        <v>-21.554</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.222</v>
+        <v>-21.651</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>6.022</v>
+        <v>5.436000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.12</v>
+        <v>-21.889</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.58</v>
+        <v>-22.154</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.27</v>
+        <v>-21.792</v>
       </c>
       <c r="B62" t="n">
-        <v>6.23</v>
+        <v>5.983000000000001</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.604</v>
+        <v>5.252</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.228</v>
+        <v>5.527</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.62</v>
+        <v>-21.563</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.874</v>
+        <v>-11.308</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-21.432</v>
+        <v>-21.454</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.046</v>
+        <v>-20.688</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.528</v>
+        <v>7.201000000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.642</v>
+        <v>-21.267</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.044</v>
+        <v>5.911</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.016</v>
+        <v>6.161</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.82</v>
+        <v>5.261</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.872</v>
+        <v>-13.71</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.596</v>
+        <v>-12.846</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.46</v>
+        <v>-21.655</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.334</v>
+        <v>-10.411</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>6.795999999999999</v>
+        <v>5.888000000000001</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.452</v>
+        <v>-13.295</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.686</v>
+        <v>-21.758</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
